--- a/data/pca/factorExposure/factorExposure_2015-02-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01894482452825866</v>
+        <v>0.01125334853224936</v>
       </c>
       <c r="C2">
-        <v>-0.0398314681395453</v>
+        <v>-0.05447642702174011</v>
       </c>
       <c r="D2">
-        <v>0.1152778895387874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.08240377013154881</v>
+      </c>
+      <c r="E2">
+        <v>0.07847984752200279</v>
+      </c>
+      <c r="F2">
+        <v>-0.03740559413502016</v>
+      </c>
+      <c r="G2">
+        <v>0.1524036446524328</v>
+      </c>
+      <c r="H2">
+        <v>0.04481024279482185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04507808543912797</v>
+        <v>0.019651046260423</v>
       </c>
       <c r="C4">
-        <v>-0.08059466693286313</v>
+        <v>-0.1152130983532234</v>
       </c>
       <c r="D4">
-        <v>0.08008421084734473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08831939923201482</v>
+      </c>
+      <c r="E4">
+        <v>0.09076083255974844</v>
+      </c>
+      <c r="F4">
+        <v>-0.09851078019627411</v>
+      </c>
+      <c r="G4">
+        <v>0.01155732483760844</v>
+      </c>
+      <c r="H4">
+        <v>-0.06637764612474616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02987919999916433</v>
+        <v>0.03472407801577596</v>
       </c>
       <c r="C6">
-        <v>-0.02042062669894763</v>
+        <v>-0.03933037115060057</v>
       </c>
       <c r="D6">
-        <v>0.08906922812378933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06911564653718991</v>
+      </c>
+      <c r="E6">
+        <v>0.1096120901974764</v>
+      </c>
+      <c r="F6">
+        <v>-0.04625045269480578</v>
+      </c>
+      <c r="G6">
+        <v>-0.007294036065747702</v>
+      </c>
+      <c r="H6">
+        <v>0.01546814029297505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003382728571750761</v>
+        <v>0.00566845059750965</v>
       </c>
       <c r="C7">
-        <v>-0.03330039522690913</v>
+        <v>-0.04579002772175265</v>
       </c>
       <c r="D7">
-        <v>0.07373393909073206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05098079933298869</v>
+      </c>
+      <c r="E7">
+        <v>0.09326034224599464</v>
+      </c>
+      <c r="F7">
+        <v>-0.01246314663466744</v>
+      </c>
+      <c r="G7">
+        <v>-0.001386549584369019</v>
+      </c>
+      <c r="H7">
+        <v>-0.0306321604271848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0002324149963508581</v>
+        <v>-0.00496229501054635</v>
       </c>
       <c r="C8">
-        <v>-0.02922615318901913</v>
+        <v>-0.03742303682091697</v>
       </c>
       <c r="D8">
-        <v>0.0659667437499767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04403304943231728</v>
+      </c>
+      <c r="E8">
+        <v>0.0697162500593366</v>
+      </c>
+      <c r="F8">
+        <v>-0.05735268774857669</v>
+      </c>
+      <c r="G8">
+        <v>0.06618224947341328</v>
+      </c>
+      <c r="H8">
+        <v>-0.04180643745529906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03372420269793403</v>
+        <v>0.01370369477819076</v>
       </c>
       <c r="C9">
-        <v>-0.06971334717932705</v>
+        <v>-0.09385780164614151</v>
       </c>
       <c r="D9">
-        <v>0.0861631937912012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07731318786824712</v>
+      </c>
+      <c r="E9">
+        <v>0.0797046736811246</v>
+      </c>
+      <c r="F9">
+        <v>-0.0699981959150642</v>
+      </c>
+      <c r="G9">
+        <v>-0.0007901881493465301</v>
+      </c>
+      <c r="H9">
+        <v>-0.02011961831450364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1984241621226009</v>
+        <v>0.2451157396768417</v>
       </c>
       <c r="C10">
-        <v>0.1552052595624198</v>
+        <v>0.09209237698932779</v>
       </c>
       <c r="D10">
-        <v>-0.04896255284866729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008546556622840786</v>
+      </c>
+      <c r="E10">
+        <v>-0.0299696386787473</v>
+      </c>
+      <c r="F10">
+        <v>-0.03827944333100281</v>
+      </c>
+      <c r="G10">
+        <v>-0.01178093300770608</v>
+      </c>
+      <c r="H10">
+        <v>-0.004078704126166497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01095185066641783</v>
+        <v>0.009299178368722717</v>
       </c>
       <c r="C11">
-        <v>-0.04234059281664693</v>
+        <v>-0.06061907859007488</v>
       </c>
       <c r="D11">
-        <v>0.0420899596298106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02726651347166166</v>
+      </c>
+      <c r="E11">
+        <v>0.05393086915616569</v>
+      </c>
+      <c r="F11">
+        <v>0.002063698425064761</v>
+      </c>
+      <c r="G11">
+        <v>-0.007179451113950676</v>
+      </c>
+      <c r="H11">
+        <v>-0.01338769104788429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0100075528648248</v>
+        <v>0.009637481762588622</v>
       </c>
       <c r="C12">
-        <v>-0.04457485986017072</v>
+        <v>-0.05235666199537809</v>
       </c>
       <c r="D12">
-        <v>0.04986980198941409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03310399795365696</v>
+      </c>
+      <c r="E12">
+        <v>0.04489162167903513</v>
+      </c>
+      <c r="F12">
+        <v>0.004874638033922805</v>
+      </c>
+      <c r="G12">
+        <v>-0.006192823524651883</v>
+      </c>
+      <c r="H12">
+        <v>0.01888426538627311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01024604814552607</v>
+        <v>0.004623809100698683</v>
       </c>
       <c r="C13">
-        <v>-0.03572385264009272</v>
+        <v>-0.06478723121813956</v>
       </c>
       <c r="D13">
-        <v>0.1097115198993476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1159457502133542</v>
+      </c>
+      <c r="E13">
+        <v>0.1040631633504486</v>
+      </c>
+      <c r="F13">
+        <v>-0.0284284873164417</v>
+      </c>
+      <c r="G13">
+        <v>0.04540002941340549</v>
+      </c>
+      <c r="H13">
+        <v>0.07949557043896151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01218178822133891</v>
+        <v>0.002241629335756651</v>
       </c>
       <c r="C14">
-        <v>-0.02077525796007603</v>
+        <v>-0.03496058871580611</v>
       </c>
       <c r="D14">
-        <v>0.05749142301117442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05403275203965889</v>
+      </c>
+      <c r="E14">
+        <v>0.1094929340235895</v>
+      </c>
+      <c r="F14">
+        <v>-0.03935077013439438</v>
+      </c>
+      <c r="G14">
+        <v>0.01934737108444821</v>
+      </c>
+      <c r="H14">
+        <v>0.03213689646806907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003531401823011937</v>
+        <v>-0.004287690811859061</v>
       </c>
       <c r="C15">
-        <v>-0.01304377474942221</v>
+        <v>-0.03109588044496498</v>
       </c>
       <c r="D15">
-        <v>0.04814455397650096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04936015470654712</v>
+      </c>
+      <c r="E15">
+        <v>0.05859780008980406</v>
+      </c>
+      <c r="F15">
+        <v>-0.01373417980247076</v>
+      </c>
+      <c r="G15">
+        <v>0.02233027558161954</v>
+      </c>
+      <c r="H15">
+        <v>-0.01168318490904444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01068452306030471</v>
+        <v>0.008776255696100183</v>
       </c>
       <c r="C16">
-        <v>-0.04143115082131339</v>
+        <v>-0.05376136314272574</v>
       </c>
       <c r="D16">
-        <v>0.04639169355725186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03007741064609055</v>
+      </c>
+      <c r="E16">
+        <v>0.04961694378819863</v>
+      </c>
+      <c r="F16">
+        <v>0.004258948093059047</v>
+      </c>
+      <c r="G16">
+        <v>-0.02224689718355955</v>
+      </c>
+      <c r="H16">
+        <v>-0.0004719208184829306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003183543186486294</v>
+        <v>-0.003970955328637793</v>
       </c>
       <c r="C19">
-        <v>-0.02423891506395783</v>
+        <v>-0.0175159589318472</v>
       </c>
       <c r="D19">
-        <v>0.04900595197864247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02659821402014238</v>
+      </c>
+      <c r="E19">
+        <v>0.009874133466995103</v>
+      </c>
+      <c r="F19">
+        <v>-0.008248940582984598</v>
+      </c>
+      <c r="G19">
+        <v>0.02631924673900586</v>
+      </c>
+      <c r="H19">
+        <v>0.01225027280341713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0002749984185994349</v>
+        <v>0.004412791088638257</v>
       </c>
       <c r="C20">
-        <v>-0.03045510788778715</v>
+        <v>-0.04698849516413225</v>
       </c>
       <c r="D20">
-        <v>0.05493652119534346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.05723783317731757</v>
+      </c>
+      <c r="E20">
+        <v>0.06703478780099334</v>
+      </c>
+      <c r="F20">
+        <v>-0.0240673606519754</v>
+      </c>
+      <c r="G20">
+        <v>-0.01998025077333208</v>
+      </c>
+      <c r="H20">
+        <v>-0.02469050977936956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002101141661809195</v>
+        <v>0.002105078720183026</v>
       </c>
       <c r="C21">
-        <v>-0.03524109227066086</v>
+        <v>-0.04840305217081852</v>
       </c>
       <c r="D21">
-        <v>0.08394345192000643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.08493526930459504</v>
+      </c>
+      <c r="E21">
+        <v>0.09067287317831366</v>
+      </c>
+      <c r="F21">
+        <v>-0.1028648023620207</v>
+      </c>
+      <c r="G21">
+        <v>0.07495116585832057</v>
+      </c>
+      <c r="H21">
+        <v>0.08142844528547964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004270297742988407</v>
+        <v>-0.008451854727191533</v>
       </c>
       <c r="C22">
-        <v>-0.05557708919210133</v>
+        <v>-0.08468749818004172</v>
       </c>
       <c r="D22">
-        <v>0.1977856325217912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.194442919979555</v>
+      </c>
+      <c r="E22">
+        <v>0.1301374271177392</v>
+      </c>
+      <c r="F22">
+        <v>-0.0550030801997413</v>
+      </c>
+      <c r="G22">
+        <v>0.2232630874531035</v>
+      </c>
+      <c r="H22">
+        <v>-0.1329995934387614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00467730062270138</v>
+        <v>-0.005366064708497939</v>
       </c>
       <c r="C23">
-        <v>-0.05601886994726028</v>
+        <v>-0.08686584433339321</v>
       </c>
       <c r="D23">
-        <v>0.1968767445920138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1979082057872101</v>
+      </c>
+      <c r="E23">
+        <v>0.1276448897904635</v>
+      </c>
+      <c r="F23">
+        <v>-0.05747354120344448</v>
+      </c>
+      <c r="G23">
+        <v>0.2176299988160778</v>
+      </c>
+      <c r="H23">
+        <v>-0.1263254193397446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01657548317697121</v>
+        <v>0.01003043892665326</v>
       </c>
       <c r="C24">
-        <v>-0.06252442592489425</v>
+        <v>-0.07146998191980093</v>
       </c>
       <c r="D24">
-        <v>0.05697313042772672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02723460742329058</v>
+      </c>
+      <c r="E24">
+        <v>0.06139783402114186</v>
+      </c>
+      <c r="F24">
+        <v>-0.0002142910168886548</v>
+      </c>
+      <c r="G24">
+        <v>0.002356520526551347</v>
+      </c>
+      <c r="H24">
+        <v>-0.006813936338219645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01630936945524498</v>
+        <v>0.01426266198591993</v>
       </c>
       <c r="C25">
-        <v>-0.05434941714655619</v>
+        <v>-0.06574180895447036</v>
       </c>
       <c r="D25">
-        <v>0.04391532386771753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03121414688710607</v>
+      </c>
+      <c r="E25">
+        <v>0.04332988581927075</v>
+      </c>
+      <c r="F25">
+        <v>-0.0002259985689221014</v>
+      </c>
+      <c r="G25">
+        <v>-0.01221667903980226</v>
+      </c>
+      <c r="H25">
+        <v>-0.003817750523296286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005918344399823715</v>
+        <v>0.01713751573462257</v>
       </c>
       <c r="C26">
-        <v>-0.01983492409937557</v>
+        <v>-0.03309097067926679</v>
       </c>
       <c r="D26">
-        <v>0.04994630637542814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03396272176320074</v>
+      </c>
+      <c r="E26">
+        <v>0.07840855794774257</v>
+      </c>
+      <c r="F26">
+        <v>-0.0527241744622943</v>
+      </c>
+      <c r="G26">
+        <v>0.02330772607212059</v>
+      </c>
+      <c r="H26">
+        <v>0.0008339119731517624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2790084077294472</v>
+        <v>0.3125889114512658</v>
       </c>
       <c r="C28">
-        <v>0.1682414635959694</v>
+        <v>0.09120866139899389</v>
       </c>
       <c r="D28">
-        <v>-0.01126861837892041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00051692547756876</v>
+      </c>
+      <c r="E28">
+        <v>-0.0519282752716527</v>
+      </c>
+      <c r="F28">
+        <v>-0.05040256687884656</v>
+      </c>
+      <c r="G28">
+        <v>0.06334121859014975</v>
+      </c>
+      <c r="H28">
+        <v>-0.03284347598808837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004180923094267979</v>
+        <v>0.001193523486267712</v>
       </c>
       <c r="C29">
-        <v>-0.02399096184996634</v>
+        <v>-0.04078359843921125</v>
       </c>
       <c r="D29">
-        <v>0.06065963654435515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06192279703829719</v>
+      </c>
+      <c r="E29">
+        <v>0.1229882153241193</v>
+      </c>
+      <c r="F29">
+        <v>-0.04332254950962579</v>
+      </c>
+      <c r="G29">
+        <v>0.006808650534759328</v>
+      </c>
+      <c r="H29">
+        <v>0.04612039955208185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02527031690998792</v>
+        <v>0.01630785049871622</v>
       </c>
       <c r="C30">
-        <v>-0.0761112138929993</v>
+        <v>-0.09971966074719332</v>
       </c>
       <c r="D30">
-        <v>0.1381846487788204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09103308283986865</v>
+      </c>
+      <c r="E30">
+        <v>0.128229491376786</v>
+      </c>
+      <c r="F30">
+        <v>-0.02402386946847172</v>
+      </c>
+      <c r="G30">
+        <v>0.005314751245019497</v>
+      </c>
+      <c r="H30">
+        <v>-0.03084756283519568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03203672571683483</v>
+        <v>0.01034942396952629</v>
       </c>
       <c r="C31">
-        <v>-0.08470086218259183</v>
+        <v>-0.09546324406323248</v>
       </c>
       <c r="D31">
-        <v>0.04687528816130435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02231017496185061</v>
+      </c>
+      <c r="E31">
+        <v>0.03439800080538469</v>
+      </c>
+      <c r="F31">
+        <v>-0.0220973475921855</v>
+      </c>
+      <c r="G31">
+        <v>0.02072562941396427</v>
+      </c>
+      <c r="H31">
+        <v>-0.009107270572337404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01559197674275521</v>
+        <v>0.0132910884496948</v>
       </c>
       <c r="C32">
-        <v>-0.04324864467927182</v>
+        <v>-0.05238873998210258</v>
       </c>
       <c r="D32">
-        <v>0.07108538710036209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07473487406015537</v>
+      </c>
+      <c r="E32">
+        <v>0.0313247752218284</v>
+      </c>
+      <c r="F32">
+        <v>-0.05499525888891971</v>
+      </c>
+      <c r="G32">
+        <v>0.04175207121362516</v>
+      </c>
+      <c r="H32">
+        <v>0.01964365232244479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005045017251745455</v>
+        <v>0.006667690777700472</v>
       </c>
       <c r="C33">
-        <v>-0.04400175413145482</v>
+        <v>-0.06645142436918101</v>
       </c>
       <c r="D33">
-        <v>0.08706446363256604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08032127131357432</v>
+      </c>
+      <c r="E33">
+        <v>0.09410243952650552</v>
+      </c>
+      <c r="F33">
+        <v>-0.03532903411318392</v>
+      </c>
+      <c r="G33">
+        <v>0.006868909696533018</v>
+      </c>
+      <c r="H33">
+        <v>0.003628872543210748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01231267145611648</v>
+        <v>0.008659277827811968</v>
       </c>
       <c r="C34">
-        <v>-0.06127006247754336</v>
+        <v>-0.06216301759691423</v>
       </c>
       <c r="D34">
-        <v>0.05779042658774815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01378578517564511</v>
+      </c>
+      <c r="E34">
+        <v>0.0447112484033608</v>
+      </c>
+      <c r="F34">
+        <v>0.03262321520898399</v>
+      </c>
+      <c r="G34">
+        <v>0.0008448371057126241</v>
+      </c>
+      <c r="H34">
+        <v>0.008159454668117754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0002702702483359555</v>
+        <v>0.004451909843392826</v>
       </c>
       <c r="C35">
-        <v>-0.001179142173069095</v>
+        <v>-0.01598594234050995</v>
       </c>
       <c r="D35">
-        <v>0.001710657948515066</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02704752508922313</v>
+      </c>
+      <c r="E35">
+        <v>0.03337853779907941</v>
+      </c>
+      <c r="F35">
+        <v>-0.0256426181507567</v>
+      </c>
+      <c r="G35">
+        <v>-0.002237832637969487</v>
+      </c>
+      <c r="H35">
+        <v>0.009979745011055679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006086518449206614</v>
+        <v>0.01119001024768632</v>
       </c>
       <c r="C36">
-        <v>-0.0116464495720494</v>
+        <v>-0.02576682594275404</v>
       </c>
       <c r="D36">
-        <v>0.04808483223209496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04573061703505528</v>
+      </c>
+      <c r="E36">
+        <v>0.07080560568728655</v>
+      </c>
+      <c r="F36">
+        <v>-0.05328414273470684</v>
+      </c>
+      <c r="G36">
+        <v>0.009073200466296115</v>
+      </c>
+      <c r="H36">
+        <v>0.004491393875641037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001458639891935904</v>
+        <v>0.007271977268243751</v>
       </c>
       <c r="C38">
-        <v>-0.01123929299277518</v>
+        <v>-0.03012068881761638</v>
       </c>
       <c r="D38">
-        <v>0.07642141572404323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07064255323907555</v>
+      </c>
+      <c r="E38">
+        <v>0.07130214316300591</v>
+      </c>
+      <c r="F38">
+        <v>-0.01522206219985538</v>
+      </c>
+      <c r="G38">
+        <v>0.02866048683768064</v>
+      </c>
+      <c r="H38">
+        <v>-0.04259333315732451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01242950072627358</v>
+        <v>0.007302443928675941</v>
       </c>
       <c r="C39">
-        <v>-0.06176567054843243</v>
+        <v>-0.08853803320402258</v>
       </c>
       <c r="D39">
-        <v>0.09721955908577189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05960602383441854</v>
+      </c>
+      <c r="E39">
+        <v>0.1088389612590079</v>
+      </c>
+      <c r="F39">
+        <v>-0.006313340988915252</v>
+      </c>
+      <c r="G39">
+        <v>-0.002463031597266838</v>
+      </c>
+      <c r="H39">
+        <v>-0.0006695872395821448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01526211214186451</v>
+        <v>0.01346964528425048</v>
       </c>
       <c r="C40">
-        <v>-0.03048135189524347</v>
+        <v>-0.04449488571123435</v>
       </c>
       <c r="D40">
-        <v>0.1092548749397529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06404218031575733</v>
+      </c>
+      <c r="E40">
+        <v>0.0860796695591545</v>
+      </c>
+      <c r="F40">
+        <v>0.02658348360650532</v>
+      </c>
+      <c r="G40">
+        <v>0.06901286138699204</v>
+      </c>
+      <c r="H40">
+        <v>0.01668725697005307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008162711083383321</v>
+        <v>0.0169521408819657</v>
       </c>
       <c r="C41">
-        <v>-0.007182336620400318</v>
+        <v>-0.02491282964622005</v>
       </c>
       <c r="D41">
-        <v>0.02198197170846928</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03331694392809239</v>
+      </c>
+      <c r="E41">
+        <v>0.02498486195025703</v>
+      </c>
+      <c r="F41">
+        <v>-0.02001719642675322</v>
+      </c>
+      <c r="G41">
+        <v>0.004359131809182118</v>
+      </c>
+      <c r="H41">
+        <v>-0.005929691899610514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003450605795186448</v>
+        <v>0.008333245958312856</v>
       </c>
       <c r="C43">
-        <v>-0.004059327513586851</v>
+        <v>-0.01887587931713863</v>
       </c>
       <c r="D43">
-        <v>0.03688777136225489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03986329155256976</v>
+      </c>
+      <c r="E43">
+        <v>0.04167125579057278</v>
+      </c>
+      <c r="F43">
+        <v>-0.02457716158024685</v>
+      </c>
+      <c r="G43">
+        <v>0.002110636088070453</v>
+      </c>
+      <c r="H43">
+        <v>-0.01757747915243814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01825610228516687</v>
+        <v>0.008793340715083277</v>
       </c>
       <c r="C44">
-        <v>-0.03406667386631616</v>
+        <v>-0.05339876998773479</v>
       </c>
       <c r="D44">
-        <v>0.08195073729751183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07005666930339016</v>
+      </c>
+      <c r="E44">
+        <v>0.09732463182876186</v>
+      </c>
+      <c r="F44">
+        <v>-0.03925559109066758</v>
+      </c>
+      <c r="G44">
+        <v>0.03536531361437646</v>
+      </c>
+      <c r="H44">
+        <v>-0.0221262868393113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002232603991631406</v>
+        <v>-0.0003411746101172298</v>
       </c>
       <c r="C46">
-        <v>-0.03212691192893702</v>
+        <v>-0.04299930953201094</v>
       </c>
       <c r="D46">
-        <v>0.06450364316021384</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03915254598287783</v>
+      </c>
+      <c r="E46">
+        <v>0.09379636812801984</v>
+      </c>
+      <c r="F46">
+        <v>-0.04167519214898796</v>
+      </c>
+      <c r="G46">
+        <v>0.02149036939397581</v>
+      </c>
+      <c r="H46">
+        <v>0.0009880262107913136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0673988773113994</v>
+        <v>0.03071025604633358</v>
       </c>
       <c r="C47">
-        <v>-0.1137417946273321</v>
+        <v>-0.124745196536899</v>
       </c>
       <c r="D47">
-        <v>0.0498640784265554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01855499346816613</v>
+      </c>
+      <c r="E47">
+        <v>0.007439151278674168</v>
+      </c>
+      <c r="F47">
+        <v>-0.001662588583318543</v>
+      </c>
+      <c r="G47">
+        <v>-0.005792181184207824</v>
+      </c>
+      <c r="H47">
+        <v>-0.02162188651359192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004135251233454294</v>
+        <v>0.01211717471017407</v>
       </c>
       <c r="C48">
-        <v>-0.01882050108161683</v>
+        <v>-0.03416398866594084</v>
       </c>
       <c r="D48">
-        <v>0.0501487026152487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05025984506878239</v>
+      </c>
+      <c r="E48">
+        <v>0.07423184393816698</v>
+      </c>
+      <c r="F48">
+        <v>-0.06542945643024974</v>
+      </c>
+      <c r="G48">
+        <v>0.01803038646084043</v>
+      </c>
+      <c r="H48">
+        <v>-0.008161390537539457</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.003579918738816832</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002459945735681524</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002247365306375836</v>
+      </c>
+      <c r="E49">
+        <v>-0.002296900291466759</v>
+      </c>
+      <c r="F49">
+        <v>0.004601316969039061</v>
+      </c>
+      <c r="G49">
+        <v>-0.009675511369343503</v>
+      </c>
+      <c r="H49">
+        <v>0.007175685401607754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03167037540517396</v>
+        <v>0.01481732570867935</v>
       </c>
       <c r="C50">
-        <v>-0.05930575285800956</v>
+        <v>-0.07603279079093384</v>
       </c>
       <c r="D50">
-        <v>0.06350762716189513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03749511258407188</v>
+      </c>
+      <c r="E50">
+        <v>0.04242662559210417</v>
+      </c>
+      <c r="F50">
+        <v>-0.011683088053692</v>
+      </c>
+      <c r="G50">
+        <v>0.01341065669295821</v>
+      </c>
+      <c r="H50">
+        <v>-0.0201937956681814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.00604100650643307</v>
+        <v>-0.004136434888786278</v>
       </c>
       <c r="C51">
-        <v>-0.007684630738489687</v>
+        <v>-0.01965690144472119</v>
       </c>
       <c r="D51">
-        <v>0.0506248458065303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.02259832257203769</v>
+      </c>
+      <c r="E51">
+        <v>0.06321822779082488</v>
+      </c>
+      <c r="F51">
+        <v>-0.03388300851263777</v>
+      </c>
+      <c r="G51">
+        <v>0.03957892274522776</v>
+      </c>
+      <c r="H51">
+        <v>0.002769040240915379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028795332574368</v>
+        <v>0.05984425581084474</v>
       </c>
       <c r="C53">
-        <v>-0.1382113698602601</v>
+        <v>-0.1643255697591861</v>
       </c>
       <c r="D53">
-        <v>-0.006604697448460245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01888719174556289</v>
+      </c>
+      <c r="E53">
+        <v>-0.03230764707157112</v>
+      </c>
+      <c r="F53">
+        <v>-0.03378786751057759</v>
+      </c>
+      <c r="G53">
+        <v>0.00679450821106317</v>
+      </c>
+      <c r="H53">
+        <v>-0.01071784487067227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004857739488616652</v>
+        <v>0.01036103050852947</v>
       </c>
       <c r="C54">
-        <v>-0.02521860306542805</v>
+        <v>-0.04127987057320063</v>
       </c>
       <c r="D54">
-        <v>0.08199006744406008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.06154032093370973</v>
+      </c>
+      <c r="E54">
+        <v>0.06588157312839879</v>
+      </c>
+      <c r="F54">
+        <v>-0.01637457086658973</v>
+      </c>
+      <c r="G54">
+        <v>0.02226919908480766</v>
+      </c>
+      <c r="H54">
+        <v>-0.0247859562318728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08511592119850599</v>
+        <v>0.04175217555190864</v>
       </c>
       <c r="C55">
-        <v>-0.1135849596594198</v>
+        <v>-0.1284165872958244</v>
       </c>
       <c r="D55">
-        <v>0.0002456832485585477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0478891793109112</v>
+      </c>
+      <c r="E55">
+        <v>-0.01669516830886481</v>
+      </c>
+      <c r="F55">
+        <v>0.002166474093262712</v>
+      </c>
+      <c r="G55">
+        <v>0.02327171581753212</v>
+      </c>
+      <c r="H55">
+        <v>-0.004633375503953529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1246772926876038</v>
+        <v>0.06029646748494631</v>
       </c>
       <c r="C56">
-        <v>-0.16348071863945</v>
+        <v>-0.1935765500661098</v>
       </c>
       <c r="D56">
-        <v>0.02103796007140481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04234670590271547</v>
+      </c>
+      <c r="E56">
+        <v>-0.0455861720647133</v>
+      </c>
+      <c r="F56">
+        <v>0.006096718873537623</v>
+      </c>
+      <c r="G56">
+        <v>0.07278499286618333</v>
+      </c>
+      <c r="H56">
+        <v>-0.01765272363388491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.007607321051741798</v>
+        <v>0.008116688774822925</v>
       </c>
       <c r="C58">
-        <v>-0.03119455769097727</v>
+        <v>-0.07566478772941138</v>
       </c>
       <c r="D58">
-        <v>0.177226193574215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2097231151517511</v>
+      </c>
+      <c r="E58">
+        <v>0.1397890352797762</v>
+      </c>
+      <c r="F58">
+        <v>-0.1307533151963008</v>
+      </c>
+      <c r="G58">
+        <v>0.1587934011243403</v>
+      </c>
+      <c r="H58">
+        <v>-0.08607651540908112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2048422332521813</v>
+        <v>0.2611379790479031</v>
       </c>
       <c r="C59">
-        <v>0.1215768619482503</v>
+        <v>0.05595331601640353</v>
       </c>
       <c r="D59">
-        <v>0.04457165219302777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04552284142102448</v>
+      </c>
+      <c r="E59">
+        <v>-0.002192052502483779</v>
+      </c>
+      <c r="F59">
+        <v>-0.02668127558021198</v>
+      </c>
+      <c r="G59">
+        <v>0.03783387269391652</v>
+      </c>
+      <c r="H59">
+        <v>0.03040662655117373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1748233788741862</v>
+        <v>0.1529118661137204</v>
       </c>
       <c r="C60">
-        <v>-0.1106847496449165</v>
+        <v>-0.1666681967059219</v>
       </c>
       <c r="D60">
-        <v>0.1264965295208836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01887871253850388</v>
+      </c>
+      <c r="E60">
+        <v>0.1092398929632152</v>
+      </c>
+      <c r="F60">
+        <v>0.1968845986543871</v>
+      </c>
+      <c r="G60">
+        <v>-0.2403486677924828</v>
+      </c>
+      <c r="H60">
+        <v>0.15776970865247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01963100809045144</v>
+        <v>0.01276604409892281</v>
       </c>
       <c r="C61">
-        <v>-0.06038040623908428</v>
+        <v>-0.08223186168786255</v>
       </c>
       <c r="D61">
-        <v>0.07112589963542568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03746549642493651</v>
+      </c>
+      <c r="E61">
+        <v>0.07701271629490686</v>
+      </c>
+      <c r="F61">
+        <v>0.004863687203667319</v>
+      </c>
+      <c r="G61">
+        <v>-0.002410256118111638</v>
+      </c>
+      <c r="H61">
+        <v>0.002508892978745101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009952157196935044</v>
+        <v>0.01606296907877195</v>
       </c>
       <c r="C63">
-        <v>-0.02821899403608247</v>
+        <v>-0.04638333241429499</v>
       </c>
       <c r="D63">
-        <v>0.0703872267477719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03036255205268559</v>
+      </c>
+      <c r="E63">
+        <v>0.09399278818617865</v>
+      </c>
+      <c r="F63">
+        <v>-0.02670504681513353</v>
+      </c>
+      <c r="G63">
+        <v>0.001329394194734666</v>
+      </c>
+      <c r="H63">
+        <v>-0.001431205095001773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04320148952991787</v>
+        <v>0.01474144755702532</v>
       </c>
       <c r="C64">
-        <v>-0.09604985166811757</v>
+        <v>-0.1039251535105602</v>
       </c>
       <c r="D64">
-        <v>0.01534255781806932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.005526437483150981</v>
+      </c>
+      <c r="E64">
+        <v>0.03413571210617906</v>
+      </c>
+      <c r="F64">
+        <v>-0.02956363611918634</v>
+      </c>
+      <c r="G64">
+        <v>-0.031864102100299</v>
+      </c>
+      <c r="H64">
+        <v>-0.03105443500584593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02618381207917397</v>
+        <v>0.02729941436571519</v>
       </c>
       <c r="C65">
-        <v>-0.01745807383599847</v>
+        <v>-0.04549848497988798</v>
       </c>
       <c r="D65">
-        <v>0.09024271213839959</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08398322933336108</v>
+      </c>
+      <c r="E65">
+        <v>0.09094430363829989</v>
+      </c>
+      <c r="F65">
+        <v>0.003767687903082147</v>
+      </c>
+      <c r="G65">
+        <v>-0.06656537163728841</v>
+      </c>
+      <c r="H65">
+        <v>-0.01122686928747785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02020998839371297</v>
+        <v>0.008210806436280454</v>
       </c>
       <c r="C66">
-        <v>-0.07534659516362813</v>
+        <v>-0.1110918446143417</v>
       </c>
       <c r="D66">
-        <v>0.1178097946637443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08505851431942932</v>
+      </c>
+      <c r="E66">
+        <v>0.1091734265630988</v>
+      </c>
+      <c r="F66">
+        <v>-0.002657599826726772</v>
+      </c>
+      <c r="G66">
+        <v>0.01911313776309156</v>
+      </c>
+      <c r="H66">
+        <v>-0.009858519348146836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01504903811154141</v>
+        <v>0.01609970780971974</v>
       </c>
       <c r="C67">
-        <v>-0.02028559841070955</v>
+        <v>-0.03673151826916015</v>
       </c>
       <c r="D67">
-        <v>0.04499157503630643</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03525411867704543</v>
+      </c>
+      <c r="E67">
+        <v>0.05239547427322221</v>
+      </c>
+      <c r="F67">
+        <v>0.01473720555134994</v>
+      </c>
+      <c r="G67">
+        <v>0.007191575541232821</v>
+      </c>
+      <c r="H67">
+        <v>-0.03180712485736607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2165225252106842</v>
+        <v>0.2799182748178326</v>
       </c>
       <c r="C68">
-        <v>0.1327054199137079</v>
+        <v>0.06727366646837425</v>
       </c>
       <c r="D68">
-        <v>0.02500368456875309</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03588856266696863</v>
+      </c>
+      <c r="E68">
+        <v>0.01724198873722854</v>
+      </c>
+      <c r="F68">
+        <v>-0.02507512683144598</v>
+      </c>
+      <c r="G68">
+        <v>0.04157015889360047</v>
+      </c>
+      <c r="H68">
+        <v>-0.003987332032608476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04871178815078368</v>
+        <v>0.01478238966891045</v>
       </c>
       <c r="C69">
-        <v>-0.1181564112938119</v>
+        <v>-0.110750009721537</v>
       </c>
       <c r="D69">
-        <v>0.06360788636291653</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01471719330233026</v>
+      </c>
+      <c r="E69">
+        <v>0.01702033232953191</v>
+      </c>
+      <c r="F69">
+        <v>0.009116290134365089</v>
+      </c>
+      <c r="G69">
+        <v>-0.005388469330428903</v>
+      </c>
+      <c r="H69">
+        <v>0.0005235181104755201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2323372051976621</v>
+        <v>0.2704277071430197</v>
       </c>
       <c r="C71">
-        <v>0.1538319187670157</v>
+        <v>0.08275573031489801</v>
       </c>
       <c r="D71">
-        <v>0.01592871065206018</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01286340891608813</v>
+      </c>
+      <c r="E71">
+        <v>-0.004629961851151068</v>
+      </c>
+      <c r="F71">
+        <v>-0.01409700895254021</v>
+      </c>
+      <c r="G71">
+        <v>0.04783539441822252</v>
+      </c>
+      <c r="H71">
+        <v>-0.02298023460298854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09721403608203973</v>
+        <v>0.06484623371575611</v>
       </c>
       <c r="C72">
-        <v>-0.08131829092318245</v>
+        <v>-0.1246551110305212</v>
       </c>
       <c r="D72">
-        <v>0.09705284309559602</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03083996377860636</v>
+      </c>
+      <c r="E72">
+        <v>0.08554433750261571</v>
+      </c>
+      <c r="F72">
+        <v>0.01600829409813616</v>
+      </c>
+      <c r="G72">
+        <v>-0.04123349345383312</v>
+      </c>
+      <c r="H72">
+        <v>0.005752565936606812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1728018394197815</v>
+        <v>0.1591926929125463</v>
       </c>
       <c r="C73">
-        <v>-0.08797061012670249</v>
+        <v>-0.169134301241151</v>
       </c>
       <c r="D73">
-        <v>0.184574511389146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.001237635962833006</v>
+      </c>
+      <c r="E73">
+        <v>0.2484145002517356</v>
+      </c>
+      <c r="F73">
+        <v>0.3175591011274577</v>
+      </c>
+      <c r="G73">
+        <v>-0.4072449731116634</v>
+      </c>
+      <c r="H73">
+        <v>0.1755393488049956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09806272416501628</v>
+        <v>0.05139808378249353</v>
       </c>
       <c r="C74">
-        <v>-0.1222377364517552</v>
+        <v>-0.1397963164552026</v>
       </c>
       <c r="D74">
-        <v>-0.05365372291793525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04511969942022527</v>
+      </c>
+      <c r="E74">
+        <v>-0.04500725464030186</v>
+      </c>
+      <c r="F74">
+        <v>-0.03143196305807127</v>
+      </c>
+      <c r="G74">
+        <v>0.0040097535683356</v>
+      </c>
+      <c r="H74">
+        <v>-0.005705645566486059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2082465943137934</v>
+        <v>0.0974638510858253</v>
       </c>
       <c r="C75">
-        <v>-0.2168265812932039</v>
+        <v>-0.2596357494158957</v>
       </c>
       <c r="D75">
-        <v>-0.03096351433736677</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09384614146054364</v>
+      </c>
+      <c r="E75">
+        <v>-0.1348603030446856</v>
+      </c>
+      <c r="F75">
+        <v>0.05944242002525142</v>
+      </c>
+      <c r="G75">
+        <v>0.114151347979238</v>
+      </c>
+      <c r="H75">
+        <v>-0.1063207394411654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1273586636390098</v>
+        <v>0.06127959755404597</v>
       </c>
       <c r="C76">
-        <v>-0.1473753910171771</v>
+        <v>-0.1777043535961423</v>
       </c>
       <c r="D76">
-        <v>0.009860457196505327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04208673964693703</v>
+      </c>
+      <c r="E76">
+        <v>-0.04914972930233497</v>
+      </c>
+      <c r="F76">
+        <v>0.01101090163995594</v>
+      </c>
+      <c r="G76">
+        <v>0.04952065690642881</v>
+      </c>
+      <c r="H76">
+        <v>-0.02466908761012651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002986350614692794</v>
+        <v>-0.002337072423408262</v>
       </c>
       <c r="C77">
-        <v>-0.08167010454976446</v>
+        <v>-0.125982876511208</v>
       </c>
       <c r="D77">
-        <v>0.2116025969431405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7022116880056214</v>
+      </c>
+      <c r="E77">
+        <v>-0.6196397636753321</v>
+      </c>
+      <c r="F77">
+        <v>0.1401597404266783</v>
+      </c>
+      <c r="G77">
+        <v>-0.1763241079713299</v>
+      </c>
+      <c r="H77">
+        <v>0.01255917949079043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03087125152886022</v>
+        <v>0.02252951107525716</v>
       </c>
       <c r="C78">
-        <v>-0.08090283578507888</v>
+        <v>-0.09736103856340693</v>
       </c>
       <c r="D78">
-        <v>0.1363748208292252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05685172855386234</v>
+      </c>
+      <c r="E78">
+        <v>0.1058206659295595</v>
+      </c>
+      <c r="F78">
+        <v>-0.04785228416354714</v>
+      </c>
+      <c r="G78">
+        <v>0.1045205828623521</v>
+      </c>
+      <c r="H78">
+        <v>0.03299148166459012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1087805316584449</v>
+        <v>0.05234172542674961</v>
       </c>
       <c r="C79">
-        <v>-0.2180829965519842</v>
+        <v>-0.218753133543567</v>
       </c>
       <c r="D79">
-        <v>-0.6582971152536859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1448095688412125</v>
+      </c>
+      <c r="E79">
+        <v>-0.1546854994130074</v>
+      </c>
+      <c r="F79">
+        <v>-0.7681725243859832</v>
+      </c>
+      <c r="G79">
+        <v>-0.4451670010214664</v>
+      </c>
+      <c r="H79">
+        <v>0.05437945229733981</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006903964478925204</v>
+        <v>0.00897265083536203</v>
       </c>
       <c r="C80">
-        <v>-0.04515089200375218</v>
+        <v>-0.04614005010739428</v>
       </c>
       <c r="D80">
-        <v>0.02890152076842265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.002707777763572196</v>
+      </c>
+      <c r="E80">
+        <v>0.06473913909994863</v>
+      </c>
+      <c r="F80">
+        <v>0.01170571546359532</v>
+      </c>
+      <c r="G80">
+        <v>0.001703434112986</v>
+      </c>
+      <c r="H80">
+        <v>0.08108920071777152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09704697723118817</v>
+        <v>0.03291834853749558</v>
       </c>
       <c r="C81">
-        <v>-0.1413785765650746</v>
+        <v>-0.1579806384920648</v>
       </c>
       <c r="D81">
-        <v>-0.07244074960750452</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.06144911392254255</v>
+      </c>
+      <c r="E81">
+        <v>-0.07014085767040043</v>
+      </c>
+      <c r="F81">
+        <v>-0.04949960332566593</v>
+      </c>
+      <c r="G81">
+        <v>0.07461893194394763</v>
+      </c>
+      <c r="H81">
+        <v>-0.004952286836827627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2012012886332357</v>
+        <v>0.0780168319720896</v>
       </c>
       <c r="C82">
-        <v>-0.3078526804058221</v>
+        <v>-0.2916642211942874</v>
       </c>
       <c r="D82">
-        <v>-0.05553887996748721</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1819523090659433</v>
+      </c>
+      <c r="E82">
+        <v>-0.157791620532513</v>
+      </c>
+      <c r="F82">
+        <v>0.117867476803688</v>
+      </c>
+      <c r="G82">
+        <v>0.1757978587943617</v>
+      </c>
+      <c r="H82">
+        <v>-0.02780459682042625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0128117443878024</v>
+        <v>-0.006312594537549454</v>
       </c>
       <c r="C83">
-        <v>-0.04892152208585582</v>
+        <v>-0.01633202987782316</v>
       </c>
       <c r="D83">
-        <v>-0.003561153234065258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02997025426665718</v>
+      </c>
+      <c r="E83">
+        <v>-0.09646134049706634</v>
+      </c>
+      <c r="F83">
+        <v>-0.10188453744594</v>
+      </c>
+      <c r="G83">
+        <v>0.3218334984022779</v>
+      </c>
+      <c r="H83">
+        <v>0.8802857102276721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001353805404425043</v>
+        <v>-0.002819672145222057</v>
       </c>
       <c r="C84">
-        <v>-0.004767177014961463</v>
+        <v>-0.01708520198411753</v>
       </c>
       <c r="D84">
-        <v>0.01019508128644269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03575411495935807</v>
+      </c>
+      <c r="E84">
+        <v>0.0362490049131057</v>
+      </c>
+      <c r="F84">
+        <v>-0.03535457999021172</v>
+      </c>
+      <c r="G84">
+        <v>0.04526749184729222</v>
+      </c>
+      <c r="H84">
+        <v>-0.0593864429596372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1266308011603587</v>
+        <v>0.05567523000202929</v>
       </c>
       <c r="C85">
-        <v>-0.1559568797586883</v>
+        <v>-0.1786498070170139</v>
       </c>
       <c r="D85">
-        <v>-0.08673354551343745</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1144220211471484</v>
+      </c>
+      <c r="E85">
+        <v>-0.05170652116090672</v>
+      </c>
+      <c r="F85">
+        <v>-0.04403891190310114</v>
+      </c>
+      <c r="G85">
+        <v>0.01465546141303072</v>
+      </c>
+      <c r="H85">
+        <v>-0.02621820321367626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02398495972775685</v>
+        <v>0.01625170843094008</v>
       </c>
       <c r="C86">
-        <v>-0.0106278072145363</v>
+        <v>-0.04098140046934129</v>
       </c>
       <c r="D86">
-        <v>0.07615194597146933</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08831090671872024</v>
+      </c>
+      <c r="E86">
+        <v>0.02601811722541951</v>
+      </c>
+      <c r="F86">
+        <v>-0.04570498164853274</v>
+      </c>
+      <c r="G86">
+        <v>0.04280101248253771</v>
+      </c>
+      <c r="H86">
+        <v>-0.04342543575674462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02187932221528871</v>
+        <v>0.01155044780709365</v>
       </c>
       <c r="C87">
-        <v>-0.0411730263749574</v>
+        <v>-0.06909739806113886</v>
       </c>
       <c r="D87">
-        <v>0.1151518549182254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1054956109383597</v>
+      </c>
+      <c r="E87">
+        <v>0.085607194318313</v>
+      </c>
+      <c r="F87">
+        <v>-0.05027102531161787</v>
+      </c>
+      <c r="G87">
+        <v>0.07558569532885541</v>
+      </c>
+      <c r="H87">
+        <v>-0.01026387344881189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04692144552226278</v>
+        <v>0.03437869954612862</v>
       </c>
       <c r="C88">
-        <v>-0.0503536583964467</v>
+        <v>-0.07220564447892061</v>
       </c>
       <c r="D88">
-        <v>0.007375981959744586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01121171887716252</v>
+      </c>
+      <c r="E88">
+        <v>0.03365845824605352</v>
+      </c>
+      <c r="F88">
+        <v>-0.01632893575155958</v>
+      </c>
+      <c r="G88">
+        <v>-0.01961482604258778</v>
+      </c>
+      <c r="H88">
+        <v>-0.002097663641577643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3501491729051741</v>
+        <v>0.3986248677907077</v>
       </c>
       <c r="C89">
-        <v>0.2906425990422061</v>
+        <v>0.1621569682388175</v>
       </c>
       <c r="D89">
-        <v>0.01492462007833457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05100728012513657</v>
+      </c>
+      <c r="E89">
+        <v>-0.005868328774790962</v>
+      </c>
+      <c r="F89">
+        <v>-0.07571218542346533</v>
+      </c>
+      <c r="G89">
+        <v>0.06893680863848946</v>
+      </c>
+      <c r="H89">
+        <v>0.06870304987759636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2800096541891929</v>
+        <v>0.3227494875728152</v>
       </c>
       <c r="C90">
-        <v>0.2099232088769128</v>
+        <v>0.1037990599988093</v>
       </c>
       <c r="D90">
-        <v>0.0610104658337887</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0336295401198673</v>
+      </c>
+      <c r="E90">
+        <v>0.01386132674618981</v>
+      </c>
+      <c r="F90">
+        <v>0.004448328424987742</v>
+      </c>
+      <c r="G90">
+        <v>0.06008787356298415</v>
+      </c>
+      <c r="H90">
+        <v>-0.008572463966018863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1320657003676499</v>
+        <v>0.06373982786925143</v>
       </c>
       <c r="C91">
-        <v>-0.1999616570430402</v>
+        <v>-0.2013711709504492</v>
       </c>
       <c r="D91">
-        <v>-0.1015603593181488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08181578720039305</v>
+      </c>
+      <c r="E91">
+        <v>-0.112835541605377</v>
+      </c>
+      <c r="F91">
+        <v>-0.05307637406627039</v>
+      </c>
+      <c r="G91">
+        <v>0.02508108598439519</v>
+      </c>
+      <c r="H91">
+        <v>0.01208740148638466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2655099891220342</v>
+        <v>0.3358022607499522</v>
       </c>
       <c r="C92">
-        <v>0.2375771404104694</v>
+        <v>0.144047836126922</v>
       </c>
       <c r="D92">
-        <v>-0.03509769369593899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04270811912782166</v>
+      </c>
+      <c r="E92">
+        <v>-0.04782906901856267</v>
+      </c>
+      <c r="F92">
+        <v>-0.04577566282815359</v>
+      </c>
+      <c r="G92">
+        <v>0.006536192290955474</v>
+      </c>
+      <c r="H92">
+        <v>-0.1200915149317359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2979883067218493</v>
+        <v>0.3302244050026617</v>
       </c>
       <c r="C93">
-        <v>0.2168725765757609</v>
+        <v>0.1182758729127607</v>
       </c>
       <c r="D93">
-        <v>-0.02593468045645948</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0262239327648202</v>
+      </c>
+      <c r="E93">
+        <v>-0.007121739760717729</v>
+      </c>
+      <c r="F93">
+        <v>-0.008936361373313252</v>
+      </c>
+      <c r="G93">
+        <v>-0.01583956288122481</v>
+      </c>
+      <c r="H93">
+        <v>-0.03448520409338666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2432229175486773</v>
+        <v>0.1194711510430608</v>
       </c>
       <c r="C94">
-        <v>-0.2853789390337652</v>
+        <v>-0.3160529090824366</v>
       </c>
       <c r="D94">
-        <v>-0.1146663416831659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.2826313703417163</v>
+      </c>
+      <c r="E94">
+        <v>-0.2111646722168498</v>
+      </c>
+      <c r="F94">
+        <v>0.1657520789893841</v>
+      </c>
+      <c r="G94">
+        <v>0.2656981393820028</v>
+      </c>
+      <c r="H94">
+        <v>-0.1077922709544498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0003406718297506066</v>
+        <v>0.0143115862635382</v>
       </c>
       <c r="C95">
-        <v>-0.0511081342753357</v>
+        <v>-0.07506394167194268</v>
       </c>
       <c r="D95">
-        <v>0.09822672856492573</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1571877360372028</v>
+      </c>
+      <c r="E95">
+        <v>-0.03517105388517396</v>
+      </c>
+      <c r="F95">
+        <v>-0.003405859484698937</v>
+      </c>
+      <c r="G95">
+        <v>-0.03915706463376793</v>
+      </c>
+      <c r="H95">
+        <v>-0.0538197285497049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002192801081840997</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009818626859474711</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0005831016663595465</v>
+      </c>
+      <c r="E97">
+        <v>0.003534225567261895</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003609095956783408</v>
+      </c>
+      <c r="G97">
+        <v>0.0004504857066039166</v>
+      </c>
+      <c r="H97">
+        <v>-0.00529768733758829</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1456220377429251</v>
+        <v>0.133182660922003</v>
       </c>
       <c r="C98">
-        <v>-0.1054401717509135</v>
+        <v>-0.1658378799385885</v>
       </c>
       <c r="D98">
-        <v>0.1311032860764644</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01625520609789228</v>
+      </c>
+      <c r="E98">
+        <v>0.1546317230592603</v>
+      </c>
+      <c r="F98">
+        <v>0.2642638304341135</v>
+      </c>
+      <c r="G98">
+        <v>-0.3013781818525425</v>
+      </c>
+      <c r="H98">
+        <v>0.1500396542085897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003329334119023531</v>
+        <v>0.001285918475215078</v>
       </c>
       <c r="C101">
-        <v>-0.02317582412456331</v>
+        <v>-0.03989538218228016</v>
       </c>
       <c r="D101">
-        <v>0.06054798315570885</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.06172872109344386</v>
+      </c>
+      <c r="E101">
+        <v>0.1215836399324527</v>
+      </c>
+      <c r="F101">
+        <v>-0.04267272212110035</v>
+      </c>
+      <c r="G101">
+        <v>0.007020680926591299</v>
+      </c>
+      <c r="H101">
+        <v>0.04562856384668072</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08280375150834061</v>
+        <v>0.01912335906382698</v>
       </c>
       <c r="C102">
-        <v>-0.1623818283764172</v>
+        <v>-0.1332963526073663</v>
       </c>
       <c r="D102">
-        <v>0.004828778004788839</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.07298889720809486</v>
+      </c>
+      <c r="E102">
+        <v>-0.07652637178014279</v>
+      </c>
+      <c r="F102">
+        <v>0.07405477139553104</v>
+      </c>
+      <c r="G102">
+        <v>0.03902363428347882</v>
+      </c>
+      <c r="H102">
+        <v>0.01231686213011344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
